--- a/Exoplanets/output.xlsx
+++ b/Exoplanets/output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Science\Exoplanets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91085488-589C-4FF5-9859-795E45796F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B1A2FC-3FBB-4F90-9388-9F5CA83209FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25200" yWindow="1260" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5488,7 +5488,7 @@
   <dimension ref="A1:M1670"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5607,10 +5607,10 @@
       <c r="I3">
         <v>5310</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="2">
         <v>1.76</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="2">
         <v>11.74</v>
       </c>
       <c r="L3">
@@ -5639,7 +5639,7 @@
       <c r="F4">
         <v>3.089</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="4">
         <v>384.84300000000002</v>
       </c>
       <c r="H4">
@@ -5648,10 +5648,10 @@
       <c r="I4">
         <v>5757</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="4">
         <v>1.54</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="4">
         <v>1799.5</v>
       </c>
       <c r="L4">
@@ -6151,7 +6151,7 @@
       <c r="F17">
         <v>4.1310000000000002</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="4">
         <v>122.3874</v>
       </c>
       <c r="H17">
@@ -6160,10 +6160,10 @@
       <c r="I17">
         <v>4925</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="4">
         <v>1.54</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="4">
         <v>981.31</v>
       </c>
       <c r="L17">
